--- a/20_営業/11_共通・IF/BR100/ERP_T_BR100_CCP_共通_BIP管理.xlsx
+++ b/20_営業/11_共通・IF/BR100/ERP_T_BR100_CCP_共通_BIP管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\10.共通\02.会計領域SaaS\40.業務系\13_初期流動\02.障害対応\E_本稼動_19461【共通・IF】BIP接続_ERP\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\main\20_チェックイン\11_基盤\03314\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="5325" windowWidth="21600" windowHeight="13215" tabRatio="720"/>
+    <workbookView xWindow="5112" yWindow="5328" windowWidth="21600" windowHeight="13212" tabRatio="842" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="49" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_Fill2" localSheetId="3" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill2" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill2" hidden="1">[1]責準明細表!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">スケジューラ構成!$B$10:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">スケジューラ構成!$B$8:$D$8</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">'[3]１．InfoCube (YKCH0010)案１:１．InfoCube (YKCH0010) 案２'!$W$5:$W$5</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
@@ -220,16 +220,16 @@
     <definedName name="導入時期う" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="導入時期う" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="R0008708 - 個人用ビュー" guid="{A5DCC26B-C60D-42D0-9CAD-BC67DFA2356B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1180" tabRatio="924" activeSheetId="5"/>
     <customWorkbookView name="R0008709 - 個人用ビュー" guid="{031A89B7-34D4-4502-ABB1-60F92001A7ED}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="924" activeSheetId="1"/>
-    <customWorkbookView name="R0008708 - 個人用ビュー" guid="{A5DCC26B-C60D-42D0-9CAD-BC67DFA2356B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1180" tabRatio="924" activeSheetId="5"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>タスク名</t>
   </si>
@@ -278,16 +278,6 @@
     <t>SCSK 細沼</t>
     <rPh sb="5" eb="7">
       <t>ホソヌマ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>※赤字が変更項目</t>
-    <rPh sb="1" eb="3">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ヘンコウコウモク</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -454,10 +444,6 @@
     <phoneticPr fontId="64"/>
   </si>
   <si>
-    <t>Issue1.0</t>
-    <phoneticPr fontId="64"/>
-  </si>
-  <si>
     <t>T_BR100_CCP_BIP_管理</t>
     <rPh sb="16" eb="18">
       <t>カンリ</t>
@@ -574,12 +560,40 @@
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="64"/>
+  </si>
+  <si>
+    <t>SCSK 郭</t>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>E_本稼動_19801対応</t>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve">インスタンス名 </t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>bip.bi_serverHA</t>
+  </si>
+  <si>
+    <t>bip.bi_server1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="72">
+  <fonts count="73">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,8 +1120,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Meiryo ui"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1335,6 +1356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -2214,7 +2241,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="145" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2241,9 +2268,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2384,6 +2408,18 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="145" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="2" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="145" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="17" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2402,41 +2438,35 @@
     <xf numFmtId="49" fontId="60" fillId="0" borderId="5" xfId="149" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="38" borderId="18" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="38" borderId="19" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="31" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="38" borderId="20" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="32" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="38" borderId="21" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="38" borderId="22" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="34" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="5" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="24" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="25" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="27" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="24" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="25" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="28" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="26" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="2" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="29" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="28" fillId="5" borderId="27" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2447,47 +2477,53 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="28" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="27" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="28" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="28" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="28" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="2" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="38" borderId="18" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="29" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="38" borderId="19" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="30" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="38" borderId="20" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="31" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="38" borderId="21" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="32" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="38" borderId="22" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="33" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="5" borderId="23" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="24" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="25" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="34" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="24" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="25" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="26" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="151">
@@ -2647,6 +2683,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFD8D8D8"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
@@ -2660,6 +2697,245 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="1800225"/>
+          <a:ext cx="3629025" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="5400675"/>
+          <a:ext cx="3629025" cy="6010275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 代替処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733926" y="1609725"/>
+          <a:ext cx="1009650" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>検証環境</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 代替処理 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733926" y="5010150"/>
+          <a:ext cx="1009650" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>本番環境</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4426,501 +4702,503 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="26"/>
-    <col min="3" max="3" width="15.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="26"/>
-    <col min="6" max="6" width="9.5" style="26" customWidth="1"/>
-    <col min="7" max="258" width="9" style="26"/>
-    <col min="259" max="259" width="10.875" style="26" customWidth="1"/>
-    <col min="260" max="261" width="9" style="26"/>
-    <col min="262" max="262" width="9.5" style="26" customWidth="1"/>
-    <col min="263" max="514" width="9" style="26"/>
-    <col min="515" max="515" width="10.875" style="26" customWidth="1"/>
-    <col min="516" max="517" width="9" style="26"/>
-    <col min="518" max="518" width="9.5" style="26" customWidth="1"/>
-    <col min="519" max="770" width="9" style="26"/>
-    <col min="771" max="771" width="10.875" style="26" customWidth="1"/>
-    <col min="772" max="773" width="9" style="26"/>
-    <col min="774" max="774" width="9.5" style="26" customWidth="1"/>
-    <col min="775" max="1026" width="9" style="26"/>
-    <col min="1027" max="1027" width="10.875" style="26" customWidth="1"/>
-    <col min="1028" max="1029" width="9" style="26"/>
-    <col min="1030" max="1030" width="9.5" style="26" customWidth="1"/>
-    <col min="1031" max="1282" width="9" style="26"/>
-    <col min="1283" max="1283" width="10.875" style="26" customWidth="1"/>
-    <col min="1284" max="1285" width="9" style="26"/>
-    <col min="1286" max="1286" width="9.5" style="26" customWidth="1"/>
-    <col min="1287" max="1538" width="9" style="26"/>
-    <col min="1539" max="1539" width="10.875" style="26" customWidth="1"/>
-    <col min="1540" max="1541" width="9" style="26"/>
-    <col min="1542" max="1542" width="9.5" style="26" customWidth="1"/>
-    <col min="1543" max="1794" width="9" style="26"/>
-    <col min="1795" max="1795" width="10.875" style="26" customWidth="1"/>
-    <col min="1796" max="1797" width="9" style="26"/>
-    <col min="1798" max="1798" width="9.5" style="26" customWidth="1"/>
-    <col min="1799" max="2050" width="9" style="26"/>
-    <col min="2051" max="2051" width="10.875" style="26" customWidth="1"/>
-    <col min="2052" max="2053" width="9" style="26"/>
-    <col min="2054" max="2054" width="9.5" style="26" customWidth="1"/>
-    <col min="2055" max="2306" width="9" style="26"/>
-    <col min="2307" max="2307" width="10.875" style="26" customWidth="1"/>
-    <col min="2308" max="2309" width="9" style="26"/>
-    <col min="2310" max="2310" width="9.5" style="26" customWidth="1"/>
-    <col min="2311" max="2562" width="9" style="26"/>
-    <col min="2563" max="2563" width="10.875" style="26" customWidth="1"/>
-    <col min="2564" max="2565" width="9" style="26"/>
-    <col min="2566" max="2566" width="9.5" style="26" customWidth="1"/>
-    <col min="2567" max="2818" width="9" style="26"/>
-    <col min="2819" max="2819" width="10.875" style="26" customWidth="1"/>
-    <col min="2820" max="2821" width="9" style="26"/>
-    <col min="2822" max="2822" width="9.5" style="26" customWidth="1"/>
-    <col min="2823" max="3074" width="9" style="26"/>
-    <col min="3075" max="3075" width="10.875" style="26" customWidth="1"/>
-    <col min="3076" max="3077" width="9" style="26"/>
-    <col min="3078" max="3078" width="9.5" style="26" customWidth="1"/>
-    <col min="3079" max="3330" width="9" style="26"/>
-    <col min="3331" max="3331" width="10.875" style="26" customWidth="1"/>
-    <col min="3332" max="3333" width="9" style="26"/>
-    <col min="3334" max="3334" width="9.5" style="26" customWidth="1"/>
-    <col min="3335" max="3586" width="9" style="26"/>
-    <col min="3587" max="3587" width="10.875" style="26" customWidth="1"/>
-    <col min="3588" max="3589" width="9" style="26"/>
-    <col min="3590" max="3590" width="9.5" style="26" customWidth="1"/>
-    <col min="3591" max="3842" width="9" style="26"/>
-    <col min="3843" max="3843" width="10.875" style="26" customWidth="1"/>
-    <col min="3844" max="3845" width="9" style="26"/>
-    <col min="3846" max="3846" width="9.5" style="26" customWidth="1"/>
-    <col min="3847" max="4098" width="9" style="26"/>
-    <col min="4099" max="4099" width="10.875" style="26" customWidth="1"/>
-    <col min="4100" max="4101" width="9" style="26"/>
-    <col min="4102" max="4102" width="9.5" style="26" customWidth="1"/>
-    <col min="4103" max="4354" width="9" style="26"/>
-    <col min="4355" max="4355" width="10.875" style="26" customWidth="1"/>
-    <col min="4356" max="4357" width="9" style="26"/>
-    <col min="4358" max="4358" width="9.5" style="26" customWidth="1"/>
-    <col min="4359" max="4610" width="9" style="26"/>
-    <col min="4611" max="4611" width="10.875" style="26" customWidth="1"/>
-    <col min="4612" max="4613" width="9" style="26"/>
-    <col min="4614" max="4614" width="9.5" style="26" customWidth="1"/>
-    <col min="4615" max="4866" width="9" style="26"/>
-    <col min="4867" max="4867" width="10.875" style="26" customWidth="1"/>
-    <col min="4868" max="4869" width="9" style="26"/>
-    <col min="4870" max="4870" width="9.5" style="26" customWidth="1"/>
-    <col min="4871" max="5122" width="9" style="26"/>
-    <col min="5123" max="5123" width="10.875" style="26" customWidth="1"/>
-    <col min="5124" max="5125" width="9" style="26"/>
-    <col min="5126" max="5126" width="9.5" style="26" customWidth="1"/>
-    <col min="5127" max="5378" width="9" style="26"/>
-    <col min="5379" max="5379" width="10.875" style="26" customWidth="1"/>
-    <col min="5380" max="5381" width="9" style="26"/>
-    <col min="5382" max="5382" width="9.5" style="26" customWidth="1"/>
-    <col min="5383" max="5634" width="9" style="26"/>
-    <col min="5635" max="5635" width="10.875" style="26" customWidth="1"/>
-    <col min="5636" max="5637" width="9" style="26"/>
-    <col min="5638" max="5638" width="9.5" style="26" customWidth="1"/>
-    <col min="5639" max="5890" width="9" style="26"/>
-    <col min="5891" max="5891" width="10.875" style="26" customWidth="1"/>
-    <col min="5892" max="5893" width="9" style="26"/>
-    <col min="5894" max="5894" width="9.5" style="26" customWidth="1"/>
-    <col min="5895" max="6146" width="9" style="26"/>
-    <col min="6147" max="6147" width="10.875" style="26" customWidth="1"/>
-    <col min="6148" max="6149" width="9" style="26"/>
-    <col min="6150" max="6150" width="9.5" style="26" customWidth="1"/>
-    <col min="6151" max="6402" width="9" style="26"/>
-    <col min="6403" max="6403" width="10.875" style="26" customWidth="1"/>
-    <col min="6404" max="6405" width="9" style="26"/>
-    <col min="6406" max="6406" width="9.5" style="26" customWidth="1"/>
-    <col min="6407" max="6658" width="9" style="26"/>
-    <col min="6659" max="6659" width="10.875" style="26" customWidth="1"/>
-    <col min="6660" max="6661" width="9" style="26"/>
-    <col min="6662" max="6662" width="9.5" style="26" customWidth="1"/>
-    <col min="6663" max="6914" width="9" style="26"/>
-    <col min="6915" max="6915" width="10.875" style="26" customWidth="1"/>
-    <col min="6916" max="6917" width="9" style="26"/>
-    <col min="6918" max="6918" width="9.5" style="26" customWidth="1"/>
-    <col min="6919" max="7170" width="9" style="26"/>
-    <col min="7171" max="7171" width="10.875" style="26" customWidth="1"/>
-    <col min="7172" max="7173" width="9" style="26"/>
-    <col min="7174" max="7174" width="9.5" style="26" customWidth="1"/>
-    <col min="7175" max="7426" width="9" style="26"/>
-    <col min="7427" max="7427" width="10.875" style="26" customWidth="1"/>
-    <col min="7428" max="7429" width="9" style="26"/>
-    <col min="7430" max="7430" width="9.5" style="26" customWidth="1"/>
-    <col min="7431" max="7682" width="9" style="26"/>
-    <col min="7683" max="7683" width="10.875" style="26" customWidth="1"/>
-    <col min="7684" max="7685" width="9" style="26"/>
-    <col min="7686" max="7686" width="9.5" style="26" customWidth="1"/>
-    <col min="7687" max="7938" width="9" style="26"/>
-    <col min="7939" max="7939" width="10.875" style="26" customWidth="1"/>
-    <col min="7940" max="7941" width="9" style="26"/>
-    <col min="7942" max="7942" width="9.5" style="26" customWidth="1"/>
-    <col min="7943" max="8194" width="9" style="26"/>
-    <col min="8195" max="8195" width="10.875" style="26" customWidth="1"/>
-    <col min="8196" max="8197" width="9" style="26"/>
-    <col min="8198" max="8198" width="9.5" style="26" customWidth="1"/>
-    <col min="8199" max="8450" width="9" style="26"/>
-    <col min="8451" max="8451" width="10.875" style="26" customWidth="1"/>
-    <col min="8452" max="8453" width="9" style="26"/>
-    <col min="8454" max="8454" width="9.5" style="26" customWidth="1"/>
-    <col min="8455" max="8706" width="9" style="26"/>
-    <col min="8707" max="8707" width="10.875" style="26" customWidth="1"/>
-    <col min="8708" max="8709" width="9" style="26"/>
-    <col min="8710" max="8710" width="9.5" style="26" customWidth="1"/>
-    <col min="8711" max="8962" width="9" style="26"/>
-    <col min="8963" max="8963" width="10.875" style="26" customWidth="1"/>
-    <col min="8964" max="8965" width="9" style="26"/>
-    <col min="8966" max="8966" width="9.5" style="26" customWidth="1"/>
-    <col min="8967" max="9218" width="9" style="26"/>
-    <col min="9219" max="9219" width="10.875" style="26" customWidth="1"/>
-    <col min="9220" max="9221" width="9" style="26"/>
-    <col min="9222" max="9222" width="9.5" style="26" customWidth="1"/>
-    <col min="9223" max="9474" width="9" style="26"/>
-    <col min="9475" max="9475" width="10.875" style="26" customWidth="1"/>
-    <col min="9476" max="9477" width="9" style="26"/>
-    <col min="9478" max="9478" width="9.5" style="26" customWidth="1"/>
-    <col min="9479" max="9730" width="9" style="26"/>
-    <col min="9731" max="9731" width="10.875" style="26" customWidth="1"/>
-    <col min="9732" max="9733" width="9" style="26"/>
-    <col min="9734" max="9734" width="9.5" style="26" customWidth="1"/>
-    <col min="9735" max="9986" width="9" style="26"/>
-    <col min="9987" max="9987" width="10.875" style="26" customWidth="1"/>
-    <col min="9988" max="9989" width="9" style="26"/>
-    <col min="9990" max="9990" width="9.5" style="26" customWidth="1"/>
-    <col min="9991" max="10242" width="9" style="26"/>
-    <col min="10243" max="10243" width="10.875" style="26" customWidth="1"/>
-    <col min="10244" max="10245" width="9" style="26"/>
-    <col min="10246" max="10246" width="9.5" style="26" customWidth="1"/>
-    <col min="10247" max="10498" width="9" style="26"/>
-    <col min="10499" max="10499" width="10.875" style="26" customWidth="1"/>
-    <col min="10500" max="10501" width="9" style="26"/>
-    <col min="10502" max="10502" width="9.5" style="26" customWidth="1"/>
-    <col min="10503" max="10754" width="9" style="26"/>
-    <col min="10755" max="10755" width="10.875" style="26" customWidth="1"/>
-    <col min="10756" max="10757" width="9" style="26"/>
-    <col min="10758" max="10758" width="9.5" style="26" customWidth="1"/>
-    <col min="10759" max="11010" width="9" style="26"/>
-    <col min="11011" max="11011" width="10.875" style="26" customWidth="1"/>
-    <col min="11012" max="11013" width="9" style="26"/>
-    <col min="11014" max="11014" width="9.5" style="26" customWidth="1"/>
-    <col min="11015" max="11266" width="9" style="26"/>
-    <col min="11267" max="11267" width="10.875" style="26" customWidth="1"/>
-    <col min="11268" max="11269" width="9" style="26"/>
-    <col min="11270" max="11270" width="9.5" style="26" customWidth="1"/>
-    <col min="11271" max="11522" width="9" style="26"/>
-    <col min="11523" max="11523" width="10.875" style="26" customWidth="1"/>
-    <col min="11524" max="11525" width="9" style="26"/>
-    <col min="11526" max="11526" width="9.5" style="26" customWidth="1"/>
-    <col min="11527" max="11778" width="9" style="26"/>
-    <col min="11779" max="11779" width="10.875" style="26" customWidth="1"/>
-    <col min="11780" max="11781" width="9" style="26"/>
-    <col min="11782" max="11782" width="9.5" style="26" customWidth="1"/>
-    <col min="11783" max="12034" width="9" style="26"/>
-    <col min="12035" max="12035" width="10.875" style="26" customWidth="1"/>
-    <col min="12036" max="12037" width="9" style="26"/>
-    <col min="12038" max="12038" width="9.5" style="26" customWidth="1"/>
-    <col min="12039" max="12290" width="9" style="26"/>
-    <col min="12291" max="12291" width="10.875" style="26" customWidth="1"/>
-    <col min="12292" max="12293" width="9" style="26"/>
-    <col min="12294" max="12294" width="9.5" style="26" customWidth="1"/>
-    <col min="12295" max="12546" width="9" style="26"/>
-    <col min="12547" max="12547" width="10.875" style="26" customWidth="1"/>
-    <col min="12548" max="12549" width="9" style="26"/>
-    <col min="12550" max="12550" width="9.5" style="26" customWidth="1"/>
-    <col min="12551" max="12802" width="9" style="26"/>
-    <col min="12803" max="12803" width="10.875" style="26" customWidth="1"/>
-    <col min="12804" max="12805" width="9" style="26"/>
-    <col min="12806" max="12806" width="9.5" style="26" customWidth="1"/>
-    <col min="12807" max="13058" width="9" style="26"/>
-    <col min="13059" max="13059" width="10.875" style="26" customWidth="1"/>
-    <col min="13060" max="13061" width="9" style="26"/>
-    <col min="13062" max="13062" width="9.5" style="26" customWidth="1"/>
-    <col min="13063" max="13314" width="9" style="26"/>
-    <col min="13315" max="13315" width="10.875" style="26" customWidth="1"/>
-    <col min="13316" max="13317" width="9" style="26"/>
-    <col min="13318" max="13318" width="9.5" style="26" customWidth="1"/>
-    <col min="13319" max="13570" width="9" style="26"/>
-    <col min="13571" max="13571" width="10.875" style="26" customWidth="1"/>
-    <col min="13572" max="13573" width="9" style="26"/>
-    <col min="13574" max="13574" width="9.5" style="26" customWidth="1"/>
-    <col min="13575" max="13826" width="9" style="26"/>
-    <col min="13827" max="13827" width="10.875" style="26" customWidth="1"/>
-    <col min="13828" max="13829" width="9" style="26"/>
-    <col min="13830" max="13830" width="9.5" style="26" customWidth="1"/>
-    <col min="13831" max="14082" width="9" style="26"/>
-    <col min="14083" max="14083" width="10.875" style="26" customWidth="1"/>
-    <col min="14084" max="14085" width="9" style="26"/>
-    <col min="14086" max="14086" width="9.5" style="26" customWidth="1"/>
-    <col min="14087" max="14338" width="9" style="26"/>
-    <col min="14339" max="14339" width="10.875" style="26" customWidth="1"/>
-    <col min="14340" max="14341" width="9" style="26"/>
-    <col min="14342" max="14342" width="9.5" style="26" customWidth="1"/>
-    <col min="14343" max="14594" width="9" style="26"/>
-    <col min="14595" max="14595" width="10.875" style="26" customWidth="1"/>
-    <col min="14596" max="14597" width="9" style="26"/>
-    <col min="14598" max="14598" width="9.5" style="26" customWidth="1"/>
-    <col min="14599" max="14850" width="9" style="26"/>
-    <col min="14851" max="14851" width="10.875" style="26" customWidth="1"/>
-    <col min="14852" max="14853" width="9" style="26"/>
-    <col min="14854" max="14854" width="9.5" style="26" customWidth="1"/>
-    <col min="14855" max="15106" width="9" style="26"/>
-    <col min="15107" max="15107" width="10.875" style="26" customWidth="1"/>
-    <col min="15108" max="15109" width="9" style="26"/>
-    <col min="15110" max="15110" width="9.5" style="26" customWidth="1"/>
-    <col min="15111" max="15362" width="9" style="26"/>
-    <col min="15363" max="15363" width="10.875" style="26" customWidth="1"/>
-    <col min="15364" max="15365" width="9" style="26"/>
-    <col min="15366" max="15366" width="9.5" style="26" customWidth="1"/>
-    <col min="15367" max="15618" width="9" style="26"/>
-    <col min="15619" max="15619" width="10.875" style="26" customWidth="1"/>
-    <col min="15620" max="15621" width="9" style="26"/>
-    <col min="15622" max="15622" width="9.5" style="26" customWidth="1"/>
-    <col min="15623" max="15874" width="9" style="26"/>
-    <col min="15875" max="15875" width="10.875" style="26" customWidth="1"/>
-    <col min="15876" max="15877" width="9" style="26"/>
-    <col min="15878" max="15878" width="9.5" style="26" customWidth="1"/>
-    <col min="15879" max="16130" width="9" style="26"/>
-    <col min="16131" max="16131" width="10.875" style="26" customWidth="1"/>
-    <col min="16132" max="16133" width="9" style="26"/>
-    <col min="16134" max="16134" width="9.5" style="26" customWidth="1"/>
-    <col min="16135" max="16384" width="9" style="26"/>
+    <col min="1" max="2" width="9" style="25"/>
+    <col min="3" max="3" width="15.09765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="25"/>
+    <col min="6" max="6" width="9.5" style="25" customWidth="1"/>
+    <col min="7" max="258" width="9" style="25"/>
+    <col min="259" max="259" width="10.8984375" style="25" customWidth="1"/>
+    <col min="260" max="261" width="9" style="25"/>
+    <col min="262" max="262" width="9.5" style="25" customWidth="1"/>
+    <col min="263" max="514" width="9" style="25"/>
+    <col min="515" max="515" width="10.8984375" style="25" customWidth="1"/>
+    <col min="516" max="517" width="9" style="25"/>
+    <col min="518" max="518" width="9.5" style="25" customWidth="1"/>
+    <col min="519" max="770" width="9" style="25"/>
+    <col min="771" max="771" width="10.8984375" style="25" customWidth="1"/>
+    <col min="772" max="773" width="9" style="25"/>
+    <col min="774" max="774" width="9.5" style="25" customWidth="1"/>
+    <col min="775" max="1026" width="9" style="25"/>
+    <col min="1027" max="1027" width="10.8984375" style="25" customWidth="1"/>
+    <col min="1028" max="1029" width="9" style="25"/>
+    <col min="1030" max="1030" width="9.5" style="25" customWidth="1"/>
+    <col min="1031" max="1282" width="9" style="25"/>
+    <col min="1283" max="1283" width="10.8984375" style="25" customWidth="1"/>
+    <col min="1284" max="1285" width="9" style="25"/>
+    <col min="1286" max="1286" width="9.5" style="25" customWidth="1"/>
+    <col min="1287" max="1538" width="9" style="25"/>
+    <col min="1539" max="1539" width="10.8984375" style="25" customWidth="1"/>
+    <col min="1540" max="1541" width="9" style="25"/>
+    <col min="1542" max="1542" width="9.5" style="25" customWidth="1"/>
+    <col min="1543" max="1794" width="9" style="25"/>
+    <col min="1795" max="1795" width="10.8984375" style="25" customWidth="1"/>
+    <col min="1796" max="1797" width="9" style="25"/>
+    <col min="1798" max="1798" width="9.5" style="25" customWidth="1"/>
+    <col min="1799" max="2050" width="9" style="25"/>
+    <col min="2051" max="2051" width="10.8984375" style="25" customWidth="1"/>
+    <col min="2052" max="2053" width="9" style="25"/>
+    <col min="2054" max="2054" width="9.5" style="25" customWidth="1"/>
+    <col min="2055" max="2306" width="9" style="25"/>
+    <col min="2307" max="2307" width="10.8984375" style="25" customWidth="1"/>
+    <col min="2308" max="2309" width="9" style="25"/>
+    <col min="2310" max="2310" width="9.5" style="25" customWidth="1"/>
+    <col min="2311" max="2562" width="9" style="25"/>
+    <col min="2563" max="2563" width="10.8984375" style="25" customWidth="1"/>
+    <col min="2564" max="2565" width="9" style="25"/>
+    <col min="2566" max="2566" width="9.5" style="25" customWidth="1"/>
+    <col min="2567" max="2818" width="9" style="25"/>
+    <col min="2819" max="2819" width="10.8984375" style="25" customWidth="1"/>
+    <col min="2820" max="2821" width="9" style="25"/>
+    <col min="2822" max="2822" width="9.5" style="25" customWidth="1"/>
+    <col min="2823" max="3074" width="9" style="25"/>
+    <col min="3075" max="3075" width="10.8984375" style="25" customWidth="1"/>
+    <col min="3076" max="3077" width="9" style="25"/>
+    <col min="3078" max="3078" width="9.5" style="25" customWidth="1"/>
+    <col min="3079" max="3330" width="9" style="25"/>
+    <col min="3331" max="3331" width="10.8984375" style="25" customWidth="1"/>
+    <col min="3332" max="3333" width="9" style="25"/>
+    <col min="3334" max="3334" width="9.5" style="25" customWidth="1"/>
+    <col min="3335" max="3586" width="9" style="25"/>
+    <col min="3587" max="3587" width="10.8984375" style="25" customWidth="1"/>
+    <col min="3588" max="3589" width="9" style="25"/>
+    <col min="3590" max="3590" width="9.5" style="25" customWidth="1"/>
+    <col min="3591" max="3842" width="9" style="25"/>
+    <col min="3843" max="3843" width="10.8984375" style="25" customWidth="1"/>
+    <col min="3844" max="3845" width="9" style="25"/>
+    <col min="3846" max="3846" width="9.5" style="25" customWidth="1"/>
+    <col min="3847" max="4098" width="9" style="25"/>
+    <col min="4099" max="4099" width="10.8984375" style="25" customWidth="1"/>
+    <col min="4100" max="4101" width="9" style="25"/>
+    <col min="4102" max="4102" width="9.5" style="25" customWidth="1"/>
+    <col min="4103" max="4354" width="9" style="25"/>
+    <col min="4355" max="4355" width="10.8984375" style="25" customWidth="1"/>
+    <col min="4356" max="4357" width="9" style="25"/>
+    <col min="4358" max="4358" width="9.5" style="25" customWidth="1"/>
+    <col min="4359" max="4610" width="9" style="25"/>
+    <col min="4611" max="4611" width="10.8984375" style="25" customWidth="1"/>
+    <col min="4612" max="4613" width="9" style="25"/>
+    <col min="4614" max="4614" width="9.5" style="25" customWidth="1"/>
+    <col min="4615" max="4866" width="9" style="25"/>
+    <col min="4867" max="4867" width="10.8984375" style="25" customWidth="1"/>
+    <col min="4868" max="4869" width="9" style="25"/>
+    <col min="4870" max="4870" width="9.5" style="25" customWidth="1"/>
+    <col min="4871" max="5122" width="9" style="25"/>
+    <col min="5123" max="5123" width="10.8984375" style="25" customWidth="1"/>
+    <col min="5124" max="5125" width="9" style="25"/>
+    <col min="5126" max="5126" width="9.5" style="25" customWidth="1"/>
+    <col min="5127" max="5378" width="9" style="25"/>
+    <col min="5379" max="5379" width="10.8984375" style="25" customWidth="1"/>
+    <col min="5380" max="5381" width="9" style="25"/>
+    <col min="5382" max="5382" width="9.5" style="25" customWidth="1"/>
+    <col min="5383" max="5634" width="9" style="25"/>
+    <col min="5635" max="5635" width="10.8984375" style="25" customWidth="1"/>
+    <col min="5636" max="5637" width="9" style="25"/>
+    <col min="5638" max="5638" width="9.5" style="25" customWidth="1"/>
+    <col min="5639" max="5890" width="9" style="25"/>
+    <col min="5891" max="5891" width="10.8984375" style="25" customWidth="1"/>
+    <col min="5892" max="5893" width="9" style="25"/>
+    <col min="5894" max="5894" width="9.5" style="25" customWidth="1"/>
+    <col min="5895" max="6146" width="9" style="25"/>
+    <col min="6147" max="6147" width="10.8984375" style="25" customWidth="1"/>
+    <col min="6148" max="6149" width="9" style="25"/>
+    <col min="6150" max="6150" width="9.5" style="25" customWidth="1"/>
+    <col min="6151" max="6402" width="9" style="25"/>
+    <col min="6403" max="6403" width="10.8984375" style="25" customWidth="1"/>
+    <col min="6404" max="6405" width="9" style="25"/>
+    <col min="6406" max="6406" width="9.5" style="25" customWidth="1"/>
+    <col min="6407" max="6658" width="9" style="25"/>
+    <col min="6659" max="6659" width="10.8984375" style="25" customWidth="1"/>
+    <col min="6660" max="6661" width="9" style="25"/>
+    <col min="6662" max="6662" width="9.5" style="25" customWidth="1"/>
+    <col min="6663" max="6914" width="9" style="25"/>
+    <col min="6915" max="6915" width="10.8984375" style="25" customWidth="1"/>
+    <col min="6916" max="6917" width="9" style="25"/>
+    <col min="6918" max="6918" width="9.5" style="25" customWidth="1"/>
+    <col min="6919" max="7170" width="9" style="25"/>
+    <col min="7171" max="7171" width="10.8984375" style="25" customWidth="1"/>
+    <col min="7172" max="7173" width="9" style="25"/>
+    <col min="7174" max="7174" width="9.5" style="25" customWidth="1"/>
+    <col min="7175" max="7426" width="9" style="25"/>
+    <col min="7427" max="7427" width="10.8984375" style="25" customWidth="1"/>
+    <col min="7428" max="7429" width="9" style="25"/>
+    <col min="7430" max="7430" width="9.5" style="25" customWidth="1"/>
+    <col min="7431" max="7682" width="9" style="25"/>
+    <col min="7683" max="7683" width="10.8984375" style="25" customWidth="1"/>
+    <col min="7684" max="7685" width="9" style="25"/>
+    <col min="7686" max="7686" width="9.5" style="25" customWidth="1"/>
+    <col min="7687" max="7938" width="9" style="25"/>
+    <col min="7939" max="7939" width="10.8984375" style="25" customWidth="1"/>
+    <col min="7940" max="7941" width="9" style="25"/>
+    <col min="7942" max="7942" width="9.5" style="25" customWidth="1"/>
+    <col min="7943" max="8194" width="9" style="25"/>
+    <col min="8195" max="8195" width="10.8984375" style="25" customWidth="1"/>
+    <col min="8196" max="8197" width="9" style="25"/>
+    <col min="8198" max="8198" width="9.5" style="25" customWidth="1"/>
+    <col min="8199" max="8450" width="9" style="25"/>
+    <col min="8451" max="8451" width="10.8984375" style="25" customWidth="1"/>
+    <col min="8452" max="8453" width="9" style="25"/>
+    <col min="8454" max="8454" width="9.5" style="25" customWidth="1"/>
+    <col min="8455" max="8706" width="9" style="25"/>
+    <col min="8707" max="8707" width="10.8984375" style="25" customWidth="1"/>
+    <col min="8708" max="8709" width="9" style="25"/>
+    <col min="8710" max="8710" width="9.5" style="25" customWidth="1"/>
+    <col min="8711" max="8962" width="9" style="25"/>
+    <col min="8963" max="8963" width="10.8984375" style="25" customWidth="1"/>
+    <col min="8964" max="8965" width="9" style="25"/>
+    <col min="8966" max="8966" width="9.5" style="25" customWidth="1"/>
+    <col min="8967" max="9218" width="9" style="25"/>
+    <col min="9219" max="9219" width="10.8984375" style="25" customWidth="1"/>
+    <col min="9220" max="9221" width="9" style="25"/>
+    <col min="9222" max="9222" width="9.5" style="25" customWidth="1"/>
+    <col min="9223" max="9474" width="9" style="25"/>
+    <col min="9475" max="9475" width="10.8984375" style="25" customWidth="1"/>
+    <col min="9476" max="9477" width="9" style="25"/>
+    <col min="9478" max="9478" width="9.5" style="25" customWidth="1"/>
+    <col min="9479" max="9730" width="9" style="25"/>
+    <col min="9731" max="9731" width="10.8984375" style="25" customWidth="1"/>
+    <col min="9732" max="9733" width="9" style="25"/>
+    <col min="9734" max="9734" width="9.5" style="25" customWidth="1"/>
+    <col min="9735" max="9986" width="9" style="25"/>
+    <col min="9987" max="9987" width="10.8984375" style="25" customWidth="1"/>
+    <col min="9988" max="9989" width="9" style="25"/>
+    <col min="9990" max="9990" width="9.5" style="25" customWidth="1"/>
+    <col min="9991" max="10242" width="9" style="25"/>
+    <col min="10243" max="10243" width="10.8984375" style="25" customWidth="1"/>
+    <col min="10244" max="10245" width="9" style="25"/>
+    <col min="10246" max="10246" width="9.5" style="25" customWidth="1"/>
+    <col min="10247" max="10498" width="9" style="25"/>
+    <col min="10499" max="10499" width="10.8984375" style="25" customWidth="1"/>
+    <col min="10500" max="10501" width="9" style="25"/>
+    <col min="10502" max="10502" width="9.5" style="25" customWidth="1"/>
+    <col min="10503" max="10754" width="9" style="25"/>
+    <col min="10755" max="10755" width="10.8984375" style="25" customWidth="1"/>
+    <col min="10756" max="10757" width="9" style="25"/>
+    <col min="10758" max="10758" width="9.5" style="25" customWidth="1"/>
+    <col min="10759" max="11010" width="9" style="25"/>
+    <col min="11011" max="11011" width="10.8984375" style="25" customWidth="1"/>
+    <col min="11012" max="11013" width="9" style="25"/>
+    <col min="11014" max="11014" width="9.5" style="25" customWidth="1"/>
+    <col min="11015" max="11266" width="9" style="25"/>
+    <col min="11267" max="11267" width="10.8984375" style="25" customWidth="1"/>
+    <col min="11268" max="11269" width="9" style="25"/>
+    <col min="11270" max="11270" width="9.5" style="25" customWidth="1"/>
+    <col min="11271" max="11522" width="9" style="25"/>
+    <col min="11523" max="11523" width="10.8984375" style="25" customWidth="1"/>
+    <col min="11524" max="11525" width="9" style="25"/>
+    <col min="11526" max="11526" width="9.5" style="25" customWidth="1"/>
+    <col min="11527" max="11778" width="9" style="25"/>
+    <col min="11779" max="11779" width="10.8984375" style="25" customWidth="1"/>
+    <col min="11780" max="11781" width="9" style="25"/>
+    <col min="11782" max="11782" width="9.5" style="25" customWidth="1"/>
+    <col min="11783" max="12034" width="9" style="25"/>
+    <col min="12035" max="12035" width="10.8984375" style="25" customWidth="1"/>
+    <col min="12036" max="12037" width="9" style="25"/>
+    <col min="12038" max="12038" width="9.5" style="25" customWidth="1"/>
+    <col min="12039" max="12290" width="9" style="25"/>
+    <col min="12291" max="12291" width="10.8984375" style="25" customWidth="1"/>
+    <col min="12292" max="12293" width="9" style="25"/>
+    <col min="12294" max="12294" width="9.5" style="25" customWidth="1"/>
+    <col min="12295" max="12546" width="9" style="25"/>
+    <col min="12547" max="12547" width="10.8984375" style="25" customWidth="1"/>
+    <col min="12548" max="12549" width="9" style="25"/>
+    <col min="12550" max="12550" width="9.5" style="25" customWidth="1"/>
+    <col min="12551" max="12802" width="9" style="25"/>
+    <col min="12803" max="12803" width="10.8984375" style="25" customWidth="1"/>
+    <col min="12804" max="12805" width="9" style="25"/>
+    <col min="12806" max="12806" width="9.5" style="25" customWidth="1"/>
+    <col min="12807" max="13058" width="9" style="25"/>
+    <col min="13059" max="13059" width="10.8984375" style="25" customWidth="1"/>
+    <col min="13060" max="13061" width="9" style="25"/>
+    <col min="13062" max="13062" width="9.5" style="25" customWidth="1"/>
+    <col min="13063" max="13314" width="9" style="25"/>
+    <col min="13315" max="13315" width="10.8984375" style="25" customWidth="1"/>
+    <col min="13316" max="13317" width="9" style="25"/>
+    <col min="13318" max="13318" width="9.5" style="25" customWidth="1"/>
+    <col min="13319" max="13570" width="9" style="25"/>
+    <col min="13571" max="13571" width="10.8984375" style="25" customWidth="1"/>
+    <col min="13572" max="13573" width="9" style="25"/>
+    <col min="13574" max="13574" width="9.5" style="25" customWidth="1"/>
+    <col min="13575" max="13826" width="9" style="25"/>
+    <col min="13827" max="13827" width="10.8984375" style="25" customWidth="1"/>
+    <col min="13828" max="13829" width="9" style="25"/>
+    <col min="13830" max="13830" width="9.5" style="25" customWidth="1"/>
+    <col min="13831" max="14082" width="9" style="25"/>
+    <col min="14083" max="14083" width="10.8984375" style="25" customWidth="1"/>
+    <col min="14084" max="14085" width="9" style="25"/>
+    <col min="14086" max="14086" width="9.5" style="25" customWidth="1"/>
+    <col min="14087" max="14338" width="9" style="25"/>
+    <col min="14339" max="14339" width="10.8984375" style="25" customWidth="1"/>
+    <col min="14340" max="14341" width="9" style="25"/>
+    <col min="14342" max="14342" width="9.5" style="25" customWidth="1"/>
+    <col min="14343" max="14594" width="9" style="25"/>
+    <col min="14595" max="14595" width="10.8984375" style="25" customWidth="1"/>
+    <col min="14596" max="14597" width="9" style="25"/>
+    <col min="14598" max="14598" width="9.5" style="25" customWidth="1"/>
+    <col min="14599" max="14850" width="9" style="25"/>
+    <col min="14851" max="14851" width="10.8984375" style="25" customWidth="1"/>
+    <col min="14852" max="14853" width="9" style="25"/>
+    <col min="14854" max="14854" width="9.5" style="25" customWidth="1"/>
+    <col min="14855" max="15106" width="9" style="25"/>
+    <col min="15107" max="15107" width="10.8984375" style="25" customWidth="1"/>
+    <col min="15108" max="15109" width="9" style="25"/>
+    <col min="15110" max="15110" width="9.5" style="25" customWidth="1"/>
+    <col min="15111" max="15362" width="9" style="25"/>
+    <col min="15363" max="15363" width="10.8984375" style="25" customWidth="1"/>
+    <col min="15364" max="15365" width="9" style="25"/>
+    <col min="15366" max="15366" width="9.5" style="25" customWidth="1"/>
+    <col min="15367" max="15618" width="9" style="25"/>
+    <col min="15619" max="15619" width="10.8984375" style="25" customWidth="1"/>
+    <col min="15620" max="15621" width="9" style="25"/>
+    <col min="15622" max="15622" width="9.5" style="25" customWidth="1"/>
+    <col min="15623" max="15874" width="9" style="25"/>
+    <col min="15875" max="15875" width="10.8984375" style="25" customWidth="1"/>
+    <col min="15876" max="15877" width="9" style="25"/>
+    <col min="15878" max="15878" width="9.5" style="25" customWidth="1"/>
+    <col min="15879" max="16130" width="9" style="25"/>
+    <col min="16131" max="16131" width="10.8984375" style="25" customWidth="1"/>
+    <col min="16132" max="16133" width="9" style="25"/>
+    <col min="16134" max="16134" width="9.5" style="25" customWidth="1"/>
+    <col min="16135" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="21">
-      <c r="A1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" ht="28.5">
-      <c r="A3" s="16" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
+      <c r="A1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="28.2">
+      <c r="A3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:9" s="14" customFormat="1" ht="28.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="28.2">
+      <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="28.5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="28.5">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="30" t="s">
+    </row>
+    <row r="6" spans="1:9" s="14" customFormat="1" ht="28.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="28.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A15" s="18"/>
+      <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="28.5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
+      <c r="D15" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="28.5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A15" s="19"/>
-      <c r="C15" s="15" t="s">
+      <c r="E15" s="68"/>
+    </row>
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A16" s="18"/>
+      <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D16" s="69">
+        <v>45163</v>
+      </c>
+      <c r="E16" s="68"/>
+    </row>
+    <row r="17" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A17" s="19"/>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="69">
+        <v>45316</v>
+      </c>
+      <c r="E17" s="68"/>
+    </row>
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A18" s="18"/>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A16" s="19"/>
-      <c r="C16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="66">
-        <v>45163</v>
-      </c>
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A17" s="20"/>
-      <c r="C17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="66">
-        <v>45163</v>
-      </c>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="18" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A18" s="19"/>
-      <c r="C18" s="15" t="s">
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A19" s="18"/>
+      <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A19" s="19"/>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="71"/>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="12"/>
+    <row r="24" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="C24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="68"/>
-    </row>
-    <row r="20" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" s="15" customFormat="1" ht="12"/>
-    <row r="24" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="C24" s="15" t="s">
+    </row>
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="C25" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="C26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+    </row>
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" s="35" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-    </row>
-    <row r="27" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" s="36" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" ht="12" customHeight="1">
+      <c r="A31" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:9" ht="12" customHeight="1">
-      <c r="A31" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" s="15" customFormat="1" ht="12">
-      <c r="A32" s="22"/>
-    </row>
-    <row r="33" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A33" s="23"/>
-    </row>
-    <row r="34" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A34" s="23"/>
-    </row>
-    <row r="35" spans="1:1" s="15" customFormat="1" ht="12"/>
-    <row r="36" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A36" s="22"/>
-    </row>
-    <row r="37" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A37" s="23"/>
-    </row>
-    <row r="38" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A38" s="23"/>
-    </row>
-    <row r="39" spans="1:1" s="15" customFormat="1" ht="12"/>
-    <row r="40" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A40" s="22"/>
-    </row>
-    <row r="41" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A41" s="23"/>
-    </row>
-    <row r="42" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A42" s="23"/>
-    </row>
-    <row r="43" spans="1:1" s="15" customFormat="1" ht="12"/>
-    <row r="44" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A44" s="22"/>
-    </row>
-    <row r="45" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A45" s="23"/>
-    </row>
-    <row r="46" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A46" s="23"/>
-    </row>
-    <row r="47" spans="1:1" s="15" customFormat="1" ht="12"/>
-    <row r="48" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A48" s="22"/>
-    </row>
-    <row r="49" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A49" s="23"/>
-    </row>
-    <row r="50" spans="1:1" s="15" customFormat="1" ht="12">
-      <c r="A50" s="23"/>
-    </row>
-    <row r="51" spans="1:1" s="15" customFormat="1" ht="12"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" s="14" customFormat="1" ht="12">
+      <c r="A32" s="21"/>
+    </row>
+    <row r="33" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A33" s="22"/>
+    </row>
+    <row r="34" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A34" s="22"/>
+    </row>
+    <row r="35" spans="1:1" s="14" customFormat="1" ht="12"/>
+    <row r="36" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A36" s="21"/>
+    </row>
+    <row r="37" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:1" s="14" customFormat="1" ht="12"/>
+    <row r="40" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A42" s="22"/>
+    </row>
+    <row r="43" spans="1:1" s="14" customFormat="1" ht="12"/>
+    <row r="44" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A44" s="21"/>
+    </row>
+    <row r="45" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A45" s="22"/>
+    </row>
+    <row r="46" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A46" s="22"/>
+    </row>
+    <row r="47" spans="1:1" s="14" customFormat="1" ht="12"/>
+    <row r="48" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A48" s="21"/>
+    </row>
+    <row r="49" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A49" s="22"/>
+    </row>
+    <row r="50" spans="1:1" s="14" customFormat="1" ht="12">
+      <c r="A50" s="22"/>
+    </row>
+    <row r="51" spans="1:1" s="14" customFormat="1" ht="12"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D26:E26"/>
@@ -4942,1350 +5220,1436 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:I27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="8" width="2.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="9" customWidth="1"/>
-    <col min="10" max="256" width="2.625" style="9"/>
-    <col min="257" max="264" width="2.625" style="9" customWidth="1"/>
-    <col min="265" max="265" width="2.75" style="9" customWidth="1"/>
-    <col min="266" max="512" width="2.625" style="9"/>
-    <col min="513" max="520" width="2.625" style="9" customWidth="1"/>
-    <col min="521" max="521" width="2.75" style="9" customWidth="1"/>
-    <col min="522" max="768" width="2.625" style="9"/>
-    <col min="769" max="776" width="2.625" style="9" customWidth="1"/>
-    <col min="777" max="777" width="2.75" style="9" customWidth="1"/>
-    <col min="778" max="1024" width="2.625" style="9"/>
-    <col min="1025" max="1032" width="2.625" style="9" customWidth="1"/>
-    <col min="1033" max="1033" width="2.75" style="9" customWidth="1"/>
-    <col min="1034" max="1280" width="2.625" style="9"/>
-    <col min="1281" max="1288" width="2.625" style="9" customWidth="1"/>
-    <col min="1289" max="1289" width="2.75" style="9" customWidth="1"/>
-    <col min="1290" max="1536" width="2.625" style="9"/>
-    <col min="1537" max="1544" width="2.625" style="9" customWidth="1"/>
-    <col min="1545" max="1545" width="2.75" style="9" customWidth="1"/>
-    <col min="1546" max="1792" width="2.625" style="9"/>
-    <col min="1793" max="1800" width="2.625" style="9" customWidth="1"/>
-    <col min="1801" max="1801" width="2.75" style="9" customWidth="1"/>
-    <col min="1802" max="2048" width="2.625" style="9"/>
-    <col min="2049" max="2056" width="2.625" style="9" customWidth="1"/>
-    <col min="2057" max="2057" width="2.75" style="9" customWidth="1"/>
-    <col min="2058" max="2304" width="2.625" style="9"/>
-    <col min="2305" max="2312" width="2.625" style="9" customWidth="1"/>
-    <col min="2313" max="2313" width="2.75" style="9" customWidth="1"/>
-    <col min="2314" max="2560" width="2.625" style="9"/>
-    <col min="2561" max="2568" width="2.625" style="9" customWidth="1"/>
-    <col min="2569" max="2569" width="2.75" style="9" customWidth="1"/>
-    <col min="2570" max="2816" width="2.625" style="9"/>
-    <col min="2817" max="2824" width="2.625" style="9" customWidth="1"/>
-    <col min="2825" max="2825" width="2.75" style="9" customWidth="1"/>
-    <col min="2826" max="3072" width="2.625" style="9"/>
-    <col min="3073" max="3080" width="2.625" style="9" customWidth="1"/>
-    <col min="3081" max="3081" width="2.75" style="9" customWidth="1"/>
-    <col min="3082" max="3328" width="2.625" style="9"/>
-    <col min="3329" max="3336" width="2.625" style="9" customWidth="1"/>
-    <col min="3337" max="3337" width="2.75" style="9" customWidth="1"/>
-    <col min="3338" max="3584" width="2.625" style="9"/>
-    <col min="3585" max="3592" width="2.625" style="9" customWidth="1"/>
-    <col min="3593" max="3593" width="2.75" style="9" customWidth="1"/>
-    <col min="3594" max="3840" width="2.625" style="9"/>
-    <col min="3841" max="3848" width="2.625" style="9" customWidth="1"/>
-    <col min="3849" max="3849" width="2.75" style="9" customWidth="1"/>
-    <col min="3850" max="4096" width="2.625" style="9"/>
-    <col min="4097" max="4104" width="2.625" style="9" customWidth="1"/>
-    <col min="4105" max="4105" width="2.75" style="9" customWidth="1"/>
-    <col min="4106" max="4352" width="2.625" style="9"/>
-    <col min="4353" max="4360" width="2.625" style="9" customWidth="1"/>
-    <col min="4361" max="4361" width="2.75" style="9" customWidth="1"/>
-    <col min="4362" max="4608" width="2.625" style="9"/>
-    <col min="4609" max="4616" width="2.625" style="9" customWidth="1"/>
-    <col min="4617" max="4617" width="2.75" style="9" customWidth="1"/>
-    <col min="4618" max="4864" width="2.625" style="9"/>
-    <col min="4865" max="4872" width="2.625" style="9" customWidth="1"/>
-    <col min="4873" max="4873" width="2.75" style="9" customWidth="1"/>
-    <col min="4874" max="5120" width="2.625" style="9"/>
-    <col min="5121" max="5128" width="2.625" style="9" customWidth="1"/>
-    <col min="5129" max="5129" width="2.75" style="9" customWidth="1"/>
-    <col min="5130" max="5376" width="2.625" style="9"/>
-    <col min="5377" max="5384" width="2.625" style="9" customWidth="1"/>
-    <col min="5385" max="5385" width="2.75" style="9" customWidth="1"/>
-    <col min="5386" max="5632" width="2.625" style="9"/>
-    <col min="5633" max="5640" width="2.625" style="9" customWidth="1"/>
-    <col min="5641" max="5641" width="2.75" style="9" customWidth="1"/>
-    <col min="5642" max="5888" width="2.625" style="9"/>
-    <col min="5889" max="5896" width="2.625" style="9" customWidth="1"/>
-    <col min="5897" max="5897" width="2.75" style="9" customWidth="1"/>
-    <col min="5898" max="6144" width="2.625" style="9"/>
-    <col min="6145" max="6152" width="2.625" style="9" customWidth="1"/>
-    <col min="6153" max="6153" width="2.75" style="9" customWidth="1"/>
-    <col min="6154" max="6400" width="2.625" style="9"/>
-    <col min="6401" max="6408" width="2.625" style="9" customWidth="1"/>
-    <col min="6409" max="6409" width="2.75" style="9" customWidth="1"/>
-    <col min="6410" max="6656" width="2.625" style="9"/>
-    <col min="6657" max="6664" width="2.625" style="9" customWidth="1"/>
-    <col min="6665" max="6665" width="2.75" style="9" customWidth="1"/>
-    <col min="6666" max="6912" width="2.625" style="9"/>
-    <col min="6913" max="6920" width="2.625" style="9" customWidth="1"/>
-    <col min="6921" max="6921" width="2.75" style="9" customWidth="1"/>
-    <col min="6922" max="7168" width="2.625" style="9"/>
-    <col min="7169" max="7176" width="2.625" style="9" customWidth="1"/>
-    <col min="7177" max="7177" width="2.75" style="9" customWidth="1"/>
-    <col min="7178" max="7424" width="2.625" style="9"/>
-    <col min="7425" max="7432" width="2.625" style="9" customWidth="1"/>
-    <col min="7433" max="7433" width="2.75" style="9" customWidth="1"/>
-    <col min="7434" max="7680" width="2.625" style="9"/>
-    <col min="7681" max="7688" width="2.625" style="9" customWidth="1"/>
-    <col min="7689" max="7689" width="2.75" style="9" customWidth="1"/>
-    <col min="7690" max="7936" width="2.625" style="9"/>
-    <col min="7937" max="7944" width="2.625" style="9" customWidth="1"/>
-    <col min="7945" max="7945" width="2.75" style="9" customWidth="1"/>
-    <col min="7946" max="8192" width="2.625" style="9"/>
-    <col min="8193" max="8200" width="2.625" style="9" customWidth="1"/>
-    <col min="8201" max="8201" width="2.75" style="9" customWidth="1"/>
-    <col min="8202" max="8448" width="2.625" style="9"/>
-    <col min="8449" max="8456" width="2.625" style="9" customWidth="1"/>
-    <col min="8457" max="8457" width="2.75" style="9" customWidth="1"/>
-    <col min="8458" max="8704" width="2.625" style="9"/>
-    <col min="8705" max="8712" width="2.625" style="9" customWidth="1"/>
-    <col min="8713" max="8713" width="2.75" style="9" customWidth="1"/>
-    <col min="8714" max="8960" width="2.625" style="9"/>
-    <col min="8961" max="8968" width="2.625" style="9" customWidth="1"/>
-    <col min="8969" max="8969" width="2.75" style="9" customWidth="1"/>
-    <col min="8970" max="9216" width="2.625" style="9"/>
-    <col min="9217" max="9224" width="2.625" style="9" customWidth="1"/>
-    <col min="9225" max="9225" width="2.75" style="9" customWidth="1"/>
-    <col min="9226" max="9472" width="2.625" style="9"/>
-    <col min="9473" max="9480" width="2.625" style="9" customWidth="1"/>
-    <col min="9481" max="9481" width="2.75" style="9" customWidth="1"/>
-    <col min="9482" max="9728" width="2.625" style="9"/>
-    <col min="9729" max="9736" width="2.625" style="9" customWidth="1"/>
-    <col min="9737" max="9737" width="2.75" style="9" customWidth="1"/>
-    <col min="9738" max="9984" width="2.625" style="9"/>
-    <col min="9985" max="9992" width="2.625" style="9" customWidth="1"/>
-    <col min="9993" max="9993" width="2.75" style="9" customWidth="1"/>
-    <col min="9994" max="10240" width="2.625" style="9"/>
-    <col min="10241" max="10248" width="2.625" style="9" customWidth="1"/>
-    <col min="10249" max="10249" width="2.75" style="9" customWidth="1"/>
-    <col min="10250" max="10496" width="2.625" style="9"/>
-    <col min="10497" max="10504" width="2.625" style="9" customWidth="1"/>
-    <col min="10505" max="10505" width="2.75" style="9" customWidth="1"/>
-    <col min="10506" max="10752" width="2.625" style="9"/>
-    <col min="10753" max="10760" width="2.625" style="9" customWidth="1"/>
-    <col min="10761" max="10761" width="2.75" style="9" customWidth="1"/>
-    <col min="10762" max="11008" width="2.625" style="9"/>
-    <col min="11009" max="11016" width="2.625" style="9" customWidth="1"/>
-    <col min="11017" max="11017" width="2.75" style="9" customWidth="1"/>
-    <col min="11018" max="11264" width="2.625" style="9"/>
-    <col min="11265" max="11272" width="2.625" style="9" customWidth="1"/>
-    <col min="11273" max="11273" width="2.75" style="9" customWidth="1"/>
-    <col min="11274" max="11520" width="2.625" style="9"/>
-    <col min="11521" max="11528" width="2.625" style="9" customWidth="1"/>
-    <col min="11529" max="11529" width="2.75" style="9" customWidth="1"/>
-    <col min="11530" max="11776" width="2.625" style="9"/>
-    <col min="11777" max="11784" width="2.625" style="9" customWidth="1"/>
-    <col min="11785" max="11785" width="2.75" style="9" customWidth="1"/>
-    <col min="11786" max="12032" width="2.625" style="9"/>
-    <col min="12033" max="12040" width="2.625" style="9" customWidth="1"/>
-    <col min="12041" max="12041" width="2.75" style="9" customWidth="1"/>
-    <col min="12042" max="12288" width="2.625" style="9"/>
-    <col min="12289" max="12296" width="2.625" style="9" customWidth="1"/>
-    <col min="12297" max="12297" width="2.75" style="9" customWidth="1"/>
-    <col min="12298" max="12544" width="2.625" style="9"/>
-    <col min="12545" max="12552" width="2.625" style="9" customWidth="1"/>
-    <col min="12553" max="12553" width="2.75" style="9" customWidth="1"/>
-    <col min="12554" max="12800" width="2.625" style="9"/>
-    <col min="12801" max="12808" width="2.625" style="9" customWidth="1"/>
-    <col min="12809" max="12809" width="2.75" style="9" customWidth="1"/>
-    <col min="12810" max="13056" width="2.625" style="9"/>
-    <col min="13057" max="13064" width="2.625" style="9" customWidth="1"/>
-    <col min="13065" max="13065" width="2.75" style="9" customWidth="1"/>
-    <col min="13066" max="13312" width="2.625" style="9"/>
-    <col min="13313" max="13320" width="2.625" style="9" customWidth="1"/>
-    <col min="13321" max="13321" width="2.75" style="9" customWidth="1"/>
-    <col min="13322" max="13568" width="2.625" style="9"/>
-    <col min="13569" max="13576" width="2.625" style="9" customWidth="1"/>
-    <col min="13577" max="13577" width="2.75" style="9" customWidth="1"/>
-    <col min="13578" max="13824" width="2.625" style="9"/>
-    <col min="13825" max="13832" width="2.625" style="9" customWidth="1"/>
-    <col min="13833" max="13833" width="2.75" style="9" customWidth="1"/>
-    <col min="13834" max="14080" width="2.625" style="9"/>
-    <col min="14081" max="14088" width="2.625" style="9" customWidth="1"/>
-    <col min="14089" max="14089" width="2.75" style="9" customWidth="1"/>
-    <col min="14090" max="14336" width="2.625" style="9"/>
-    <col min="14337" max="14344" width="2.625" style="9" customWidth="1"/>
-    <col min="14345" max="14345" width="2.75" style="9" customWidth="1"/>
-    <col min="14346" max="14592" width="2.625" style="9"/>
-    <col min="14593" max="14600" width="2.625" style="9" customWidth="1"/>
-    <col min="14601" max="14601" width="2.75" style="9" customWidth="1"/>
-    <col min="14602" max="14848" width="2.625" style="9"/>
-    <col min="14849" max="14856" width="2.625" style="9" customWidth="1"/>
-    <col min="14857" max="14857" width="2.75" style="9" customWidth="1"/>
-    <col min="14858" max="15104" width="2.625" style="9"/>
-    <col min="15105" max="15112" width="2.625" style="9" customWidth="1"/>
-    <col min="15113" max="15113" width="2.75" style="9" customWidth="1"/>
-    <col min="15114" max="15360" width="2.625" style="9"/>
-    <col min="15361" max="15368" width="2.625" style="9" customWidth="1"/>
-    <col min="15369" max="15369" width="2.75" style="9" customWidth="1"/>
-    <col min="15370" max="15616" width="2.625" style="9"/>
-    <col min="15617" max="15624" width="2.625" style="9" customWidth="1"/>
-    <col min="15625" max="15625" width="2.75" style="9" customWidth="1"/>
-    <col min="15626" max="15872" width="2.625" style="9"/>
-    <col min="15873" max="15880" width="2.625" style="9" customWidth="1"/>
-    <col min="15881" max="15881" width="2.75" style="9" customWidth="1"/>
-    <col min="15882" max="16128" width="2.625" style="9"/>
-    <col min="16129" max="16136" width="2.625" style="9" customWidth="1"/>
-    <col min="16137" max="16137" width="2.75" style="9" customWidth="1"/>
-    <col min="16138" max="16384" width="2.625" style="9"/>
+    <col min="1" max="8" width="2.59765625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.69921875" style="9" customWidth="1"/>
+    <col min="10" max="256" width="2.59765625" style="9"/>
+    <col min="257" max="264" width="2.59765625" style="9" customWidth="1"/>
+    <col min="265" max="265" width="2.69921875" style="9" customWidth="1"/>
+    <col min="266" max="512" width="2.59765625" style="9"/>
+    <col min="513" max="520" width="2.59765625" style="9" customWidth="1"/>
+    <col min="521" max="521" width="2.69921875" style="9" customWidth="1"/>
+    <col min="522" max="768" width="2.59765625" style="9"/>
+    <col min="769" max="776" width="2.59765625" style="9" customWidth="1"/>
+    <col min="777" max="777" width="2.69921875" style="9" customWidth="1"/>
+    <col min="778" max="1024" width="2.59765625" style="9"/>
+    <col min="1025" max="1032" width="2.59765625" style="9" customWidth="1"/>
+    <col min="1033" max="1033" width="2.69921875" style="9" customWidth="1"/>
+    <col min="1034" max="1280" width="2.59765625" style="9"/>
+    <col min="1281" max="1288" width="2.59765625" style="9" customWidth="1"/>
+    <col min="1289" max="1289" width="2.69921875" style="9" customWidth="1"/>
+    <col min="1290" max="1536" width="2.59765625" style="9"/>
+    <col min="1537" max="1544" width="2.59765625" style="9" customWidth="1"/>
+    <col min="1545" max="1545" width="2.69921875" style="9" customWidth="1"/>
+    <col min="1546" max="1792" width="2.59765625" style="9"/>
+    <col min="1793" max="1800" width="2.59765625" style="9" customWidth="1"/>
+    <col min="1801" max="1801" width="2.69921875" style="9" customWidth="1"/>
+    <col min="1802" max="2048" width="2.59765625" style="9"/>
+    <col min="2049" max="2056" width="2.59765625" style="9" customWidth="1"/>
+    <col min="2057" max="2057" width="2.69921875" style="9" customWidth="1"/>
+    <col min="2058" max="2304" width="2.59765625" style="9"/>
+    <col min="2305" max="2312" width="2.59765625" style="9" customWidth="1"/>
+    <col min="2313" max="2313" width="2.69921875" style="9" customWidth="1"/>
+    <col min="2314" max="2560" width="2.59765625" style="9"/>
+    <col min="2561" max="2568" width="2.59765625" style="9" customWidth="1"/>
+    <col min="2569" max="2569" width="2.69921875" style="9" customWidth="1"/>
+    <col min="2570" max="2816" width="2.59765625" style="9"/>
+    <col min="2817" max="2824" width="2.59765625" style="9" customWidth="1"/>
+    <col min="2825" max="2825" width="2.69921875" style="9" customWidth="1"/>
+    <col min="2826" max="3072" width="2.59765625" style="9"/>
+    <col min="3073" max="3080" width="2.59765625" style="9" customWidth="1"/>
+    <col min="3081" max="3081" width="2.69921875" style="9" customWidth="1"/>
+    <col min="3082" max="3328" width="2.59765625" style="9"/>
+    <col min="3329" max="3336" width="2.59765625" style="9" customWidth="1"/>
+    <col min="3337" max="3337" width="2.69921875" style="9" customWidth="1"/>
+    <col min="3338" max="3584" width="2.59765625" style="9"/>
+    <col min="3585" max="3592" width="2.59765625" style="9" customWidth="1"/>
+    <col min="3593" max="3593" width="2.69921875" style="9" customWidth="1"/>
+    <col min="3594" max="3840" width="2.59765625" style="9"/>
+    <col min="3841" max="3848" width="2.59765625" style="9" customWidth="1"/>
+    <col min="3849" max="3849" width="2.69921875" style="9" customWidth="1"/>
+    <col min="3850" max="4096" width="2.59765625" style="9"/>
+    <col min="4097" max="4104" width="2.59765625" style="9" customWidth="1"/>
+    <col min="4105" max="4105" width="2.69921875" style="9" customWidth="1"/>
+    <col min="4106" max="4352" width="2.59765625" style="9"/>
+    <col min="4353" max="4360" width="2.59765625" style="9" customWidth="1"/>
+    <col min="4361" max="4361" width="2.69921875" style="9" customWidth="1"/>
+    <col min="4362" max="4608" width="2.59765625" style="9"/>
+    <col min="4609" max="4616" width="2.59765625" style="9" customWidth="1"/>
+    <col min="4617" max="4617" width="2.69921875" style="9" customWidth="1"/>
+    <col min="4618" max="4864" width="2.59765625" style="9"/>
+    <col min="4865" max="4872" width="2.59765625" style="9" customWidth="1"/>
+    <col min="4873" max="4873" width="2.69921875" style="9" customWidth="1"/>
+    <col min="4874" max="5120" width="2.59765625" style="9"/>
+    <col min="5121" max="5128" width="2.59765625" style="9" customWidth="1"/>
+    <col min="5129" max="5129" width="2.69921875" style="9" customWidth="1"/>
+    <col min="5130" max="5376" width="2.59765625" style="9"/>
+    <col min="5377" max="5384" width="2.59765625" style="9" customWidth="1"/>
+    <col min="5385" max="5385" width="2.69921875" style="9" customWidth="1"/>
+    <col min="5386" max="5632" width="2.59765625" style="9"/>
+    <col min="5633" max="5640" width="2.59765625" style="9" customWidth="1"/>
+    <col min="5641" max="5641" width="2.69921875" style="9" customWidth="1"/>
+    <col min="5642" max="5888" width="2.59765625" style="9"/>
+    <col min="5889" max="5896" width="2.59765625" style="9" customWidth="1"/>
+    <col min="5897" max="5897" width="2.69921875" style="9" customWidth="1"/>
+    <col min="5898" max="6144" width="2.59765625" style="9"/>
+    <col min="6145" max="6152" width="2.59765625" style="9" customWidth="1"/>
+    <col min="6153" max="6153" width="2.69921875" style="9" customWidth="1"/>
+    <col min="6154" max="6400" width="2.59765625" style="9"/>
+    <col min="6401" max="6408" width="2.59765625" style="9" customWidth="1"/>
+    <col min="6409" max="6409" width="2.69921875" style="9" customWidth="1"/>
+    <col min="6410" max="6656" width="2.59765625" style="9"/>
+    <col min="6657" max="6664" width="2.59765625" style="9" customWidth="1"/>
+    <col min="6665" max="6665" width="2.69921875" style="9" customWidth="1"/>
+    <col min="6666" max="6912" width="2.59765625" style="9"/>
+    <col min="6913" max="6920" width="2.59765625" style="9" customWidth="1"/>
+    <col min="6921" max="6921" width="2.69921875" style="9" customWidth="1"/>
+    <col min="6922" max="7168" width="2.59765625" style="9"/>
+    <col min="7169" max="7176" width="2.59765625" style="9" customWidth="1"/>
+    <col min="7177" max="7177" width="2.69921875" style="9" customWidth="1"/>
+    <col min="7178" max="7424" width="2.59765625" style="9"/>
+    <col min="7425" max="7432" width="2.59765625" style="9" customWidth="1"/>
+    <col min="7433" max="7433" width="2.69921875" style="9" customWidth="1"/>
+    <col min="7434" max="7680" width="2.59765625" style="9"/>
+    <col min="7681" max="7688" width="2.59765625" style="9" customWidth="1"/>
+    <col min="7689" max="7689" width="2.69921875" style="9" customWidth="1"/>
+    <col min="7690" max="7936" width="2.59765625" style="9"/>
+    <col min="7937" max="7944" width="2.59765625" style="9" customWidth="1"/>
+    <col min="7945" max="7945" width="2.69921875" style="9" customWidth="1"/>
+    <col min="7946" max="8192" width="2.59765625" style="9"/>
+    <col min="8193" max="8200" width="2.59765625" style="9" customWidth="1"/>
+    <col min="8201" max="8201" width="2.69921875" style="9" customWidth="1"/>
+    <col min="8202" max="8448" width="2.59765625" style="9"/>
+    <col min="8449" max="8456" width="2.59765625" style="9" customWidth="1"/>
+    <col min="8457" max="8457" width="2.69921875" style="9" customWidth="1"/>
+    <col min="8458" max="8704" width="2.59765625" style="9"/>
+    <col min="8705" max="8712" width="2.59765625" style="9" customWidth="1"/>
+    <col min="8713" max="8713" width="2.69921875" style="9" customWidth="1"/>
+    <col min="8714" max="8960" width="2.59765625" style="9"/>
+    <col min="8961" max="8968" width="2.59765625" style="9" customWidth="1"/>
+    <col min="8969" max="8969" width="2.69921875" style="9" customWidth="1"/>
+    <col min="8970" max="9216" width="2.59765625" style="9"/>
+    <col min="9217" max="9224" width="2.59765625" style="9" customWidth="1"/>
+    <col min="9225" max="9225" width="2.69921875" style="9" customWidth="1"/>
+    <col min="9226" max="9472" width="2.59765625" style="9"/>
+    <col min="9473" max="9480" width="2.59765625" style="9" customWidth="1"/>
+    <col min="9481" max="9481" width="2.69921875" style="9" customWidth="1"/>
+    <col min="9482" max="9728" width="2.59765625" style="9"/>
+    <col min="9729" max="9736" width="2.59765625" style="9" customWidth="1"/>
+    <col min="9737" max="9737" width="2.69921875" style="9" customWidth="1"/>
+    <col min="9738" max="9984" width="2.59765625" style="9"/>
+    <col min="9985" max="9992" width="2.59765625" style="9" customWidth="1"/>
+    <col min="9993" max="9993" width="2.69921875" style="9" customWidth="1"/>
+    <col min="9994" max="10240" width="2.59765625" style="9"/>
+    <col min="10241" max="10248" width="2.59765625" style="9" customWidth="1"/>
+    <col min="10249" max="10249" width="2.69921875" style="9" customWidth="1"/>
+    <col min="10250" max="10496" width="2.59765625" style="9"/>
+    <col min="10497" max="10504" width="2.59765625" style="9" customWidth="1"/>
+    <col min="10505" max="10505" width="2.69921875" style="9" customWidth="1"/>
+    <col min="10506" max="10752" width="2.59765625" style="9"/>
+    <col min="10753" max="10760" width="2.59765625" style="9" customWidth="1"/>
+    <col min="10761" max="10761" width="2.69921875" style="9" customWidth="1"/>
+    <col min="10762" max="11008" width="2.59765625" style="9"/>
+    <col min="11009" max="11016" width="2.59765625" style="9" customWidth="1"/>
+    <col min="11017" max="11017" width="2.69921875" style="9" customWidth="1"/>
+    <col min="11018" max="11264" width="2.59765625" style="9"/>
+    <col min="11265" max="11272" width="2.59765625" style="9" customWidth="1"/>
+    <col min="11273" max="11273" width="2.69921875" style="9" customWidth="1"/>
+    <col min="11274" max="11520" width="2.59765625" style="9"/>
+    <col min="11521" max="11528" width="2.59765625" style="9" customWidth="1"/>
+    <col min="11529" max="11529" width="2.69921875" style="9" customWidth="1"/>
+    <col min="11530" max="11776" width="2.59765625" style="9"/>
+    <col min="11777" max="11784" width="2.59765625" style="9" customWidth="1"/>
+    <col min="11785" max="11785" width="2.69921875" style="9" customWidth="1"/>
+    <col min="11786" max="12032" width="2.59765625" style="9"/>
+    <col min="12033" max="12040" width="2.59765625" style="9" customWidth="1"/>
+    <col min="12041" max="12041" width="2.69921875" style="9" customWidth="1"/>
+    <col min="12042" max="12288" width="2.59765625" style="9"/>
+    <col min="12289" max="12296" width="2.59765625" style="9" customWidth="1"/>
+    <col min="12297" max="12297" width="2.69921875" style="9" customWidth="1"/>
+    <col min="12298" max="12544" width="2.59765625" style="9"/>
+    <col min="12545" max="12552" width="2.59765625" style="9" customWidth="1"/>
+    <col min="12553" max="12553" width="2.69921875" style="9" customWidth="1"/>
+    <col min="12554" max="12800" width="2.59765625" style="9"/>
+    <col min="12801" max="12808" width="2.59765625" style="9" customWidth="1"/>
+    <col min="12809" max="12809" width="2.69921875" style="9" customWidth="1"/>
+    <col min="12810" max="13056" width="2.59765625" style="9"/>
+    <col min="13057" max="13064" width="2.59765625" style="9" customWidth="1"/>
+    <col min="13065" max="13065" width="2.69921875" style="9" customWidth="1"/>
+    <col min="13066" max="13312" width="2.59765625" style="9"/>
+    <col min="13313" max="13320" width="2.59765625" style="9" customWidth="1"/>
+    <col min="13321" max="13321" width="2.69921875" style="9" customWidth="1"/>
+    <col min="13322" max="13568" width="2.59765625" style="9"/>
+    <col min="13569" max="13576" width="2.59765625" style="9" customWidth="1"/>
+    <col min="13577" max="13577" width="2.69921875" style="9" customWidth="1"/>
+    <col min="13578" max="13824" width="2.59765625" style="9"/>
+    <col min="13825" max="13832" width="2.59765625" style="9" customWidth="1"/>
+    <col min="13833" max="13833" width="2.69921875" style="9" customWidth="1"/>
+    <col min="13834" max="14080" width="2.59765625" style="9"/>
+    <col min="14081" max="14088" width="2.59765625" style="9" customWidth="1"/>
+    <col min="14089" max="14089" width="2.69921875" style="9" customWidth="1"/>
+    <col min="14090" max="14336" width="2.59765625" style="9"/>
+    <col min="14337" max="14344" width="2.59765625" style="9" customWidth="1"/>
+    <col min="14345" max="14345" width="2.69921875" style="9" customWidth="1"/>
+    <col min="14346" max="14592" width="2.59765625" style="9"/>
+    <col min="14593" max="14600" width="2.59765625" style="9" customWidth="1"/>
+    <col min="14601" max="14601" width="2.69921875" style="9" customWidth="1"/>
+    <col min="14602" max="14848" width="2.59765625" style="9"/>
+    <col min="14849" max="14856" width="2.59765625" style="9" customWidth="1"/>
+    <col min="14857" max="14857" width="2.69921875" style="9" customWidth="1"/>
+    <col min="14858" max="15104" width="2.59765625" style="9"/>
+    <col min="15105" max="15112" width="2.59765625" style="9" customWidth="1"/>
+    <col min="15113" max="15113" width="2.69921875" style="9" customWidth="1"/>
+    <col min="15114" max="15360" width="2.59765625" style="9"/>
+    <col min="15361" max="15368" width="2.59765625" style="9" customWidth="1"/>
+    <col min="15369" max="15369" width="2.69921875" style="9" customWidth="1"/>
+    <col min="15370" max="15616" width="2.59765625" style="9"/>
+    <col min="15617" max="15624" width="2.59765625" style="9" customWidth="1"/>
+    <col min="15625" max="15625" width="2.69921875" style="9" customWidth="1"/>
+    <col min="15626" max="15872" width="2.59765625" style="9"/>
+    <col min="15873" max="15880" width="2.59765625" style="9" customWidth="1"/>
+    <col min="15881" max="15881" width="2.69921875" style="9" customWidth="1"/>
+    <col min="15882" max="16128" width="2.59765625" style="9"/>
+    <col min="16129" max="16136" width="2.59765625" style="9" customWidth="1"/>
+    <col min="16137" max="16137" width="2.69921875" style="9" customWidth="1"/>
+    <col min="16138" max="16384" width="2.59765625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12" thickBot="1"/>
-    <row r="2" spans="1:37" ht="12" thickBot="1">
-      <c r="A2" s="69" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="69" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="73"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="95"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="74">
+      <c r="A3" s="96">
         <v>45163</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="76"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="98"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="89"/>
+      <c r="A4" s="82">
+        <v>45316</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="90"/>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="91"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="91"/>
-      <c r="AJ5" s="91"/>
-      <c r="AK5" s="92"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="87"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="91"/>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="91"/>
-      <c r="AF6" s="91"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="91"/>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="92"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="87"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="92"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="87"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="92"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="87"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="92"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="87"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="92"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="87"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="94"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="81"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="94"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="81"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="94"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="80"/>
+      <c r="AK13" s="81"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="94"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="81"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="84"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="94"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="80"/>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="81"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="84"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="94"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="81"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="94"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="81"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="94"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="81"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="94"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="81"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="94"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="81"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="94"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="81"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="93"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="93"/>
-      <c r="AK22" s="94"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="81"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="84"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="93"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="94"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="81"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="93"/>
-      <c r="AK24" s="94"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="80"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="81"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="93"/>
-      <c r="AJ25" s="93"/>
-      <c r="AK25" s="94"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="80"/>
+      <c r="AD25" s="80"/>
+      <c r="AE25" s="80"/>
+      <c r="AF25" s="80"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="81"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="94"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="81"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="93"/>
-      <c r="AK27" s="94"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="81"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="93"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="93"/>
-      <c r="AJ28" s="93"/>
-      <c r="AK28" s="94"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="81"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="93"/>
-      <c r="AF29" s="93"/>
-      <c r="AG29" s="93"/>
-      <c r="AH29" s="93"/>
-      <c r="AI29" s="93"/>
-      <c r="AJ29" s="93"/>
-      <c r="AK29" s="94"/>
-    </row>
-    <row r="30" spans="1:37" ht="12" thickBot="1">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="99"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="81"/>
+    </row>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="72"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AK27"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AK30"/>
@@ -6295,84 +6659,6 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -6388,92 +6674,92 @@
   </sheetPr>
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="41"/>
-    <col min="9" max="9" width="9.875" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="5.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.8984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.09765625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="40"/>
+    <col min="9" max="9" width="9.8984375" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="54" customFormat="1" ht="10.5"/>
-    <row r="2" spans="2:4" s="15" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B2" s="55"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="2:4" s="15" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B3" s="56" t="s">
+    <row r="1" spans="2:4" s="53" customFormat="1" ht="9.6"/>
+    <row r="2" spans="2:4" s="14" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B2" s="54"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:4" s="14" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="14" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B4" s="54"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="2:4" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="14" customFormat="1" ht="12.6" thickBot="1"/>
+    <row r="7" spans="2:4">
+      <c r="B7" s="37" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" s="15" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B4" s="55"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="2:4" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="57" t="s">
+      <c r="C7" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="15" customFormat="1" ht="12.75" thickBot="1"/>
-    <row r="7" spans="2:4">
-      <c r="B7" s="38" t="s">
+    <row r="8" spans="2:4" ht="36">
+      <c r="B8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="40" t="s">
+      <c r="C8" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="24">
+      <c r="B9" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="36">
-      <c r="B8" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="24">
-      <c r="B9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-    </row>
-    <row r="11" spans="2:4" ht="12.75" thickBot="1">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="2:4" ht="12.6" thickBot="1">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="51"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="53"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="53"/>
+      <c r="B121" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17"/>
@@ -6490,18 +6776,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="12.5" style="2"/>
   </cols>
   <sheetData>
@@ -6528,15 +6817,15 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="10"/>
@@ -6545,8 +6834,8 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="62" t="s">
-        <v>50</v>
+      <c r="A6" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6559,82 +6848,78 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>58</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="10"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="12">
-        <v>15</v>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="64">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="6"/>
@@ -6642,49 +6927,49 @@
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="6"/>
@@ -6692,26 +6977,342 @@
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="62"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="62"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17"/>
@@ -6720,5 +7321,6 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;A&amp;C&amp;P／&amp;R&amp;F</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>